--- a/项目文档/前台接口/标签接口文档.xlsx
+++ b/项目文档/前台接口/标签接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="核对清单 - 核对清单" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>模块</t>
   </si>
@@ -55,6 +55,9 @@
     <t>start pageSize</t>
   </si>
   <si>
+    <t>默认start1 pageSize 10</t>
+  </si>
+  <si>
     <t>/web/tag/findById</t>
   </si>
   <si>
@@ -88,9 +91,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\-m\-d"/>
   </numFmts>
   <fonts count="28">
@@ -167,9 +170,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,22 +251,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,97 +303,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -322,30 +325,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -353,156 +506,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,32 +534,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,9 +569,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,29 +610,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,148 +636,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2052,7 +2055,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="A1:E8"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17142857142857" defaultRowHeight="13.65" customHeight="1" outlineLevelCol="4"/>
@@ -2060,7 +2063,7 @@
     <col min="1" max="1" width="16.5047619047619" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.1714285714286" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.6761904761905" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.7142857142857" style="2" customWidth="1"/>
     <col min="6" max="256" width="8.17142857142857" style="1" customWidth="1"/>
   </cols>
@@ -2121,17 +2124,19 @@
       <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" ht="22.75" customHeight="1" spans="1:5">
       <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>10</v>
@@ -2140,43 +2145,43 @@
     </row>
     <row r="6" ht="41" customHeight="1" spans="1:5">
       <c r="A6" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" ht="22.75" customHeight="1" spans="1:5">
       <c r="A7" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="22.75" customHeight="1" spans="1:5">
       <c r="A8" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>10</v>
